--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -17371,19 +17371,19 @@
         <v>241</v>
       </c>
       <c r="M305" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N305" s="0">
         <v>3</v>
       </c>
       <c r="O305" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P305" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q305" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R305" t="s">
         <v>279</v>
@@ -17425,19 +17425,19 @@
         <v>241</v>
       </c>
       <c r="M306" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N306" s="0">
         <v>3</v>
       </c>
       <c r="O306" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P306" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q306" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R306" t="s">
         <v>279</v>
@@ -17479,19 +17479,19 @@
         <v>241</v>
       </c>
       <c r="M307" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N307" s="0">
         <v>3</v>
       </c>
       <c r="O307" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P307" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q307" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R307" t="s">
         <v>279</v>
@@ -17533,19 +17533,19 @@
         <v>241</v>
       </c>
       <c r="M308" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N308" s="0">
         <v>3</v>
       </c>
       <c r="O308" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P308" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q308" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R308" t="s">
         <v>279</v>
@@ -17587,19 +17587,19 @@
         <v>241</v>
       </c>
       <c r="M309" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N309" s="0">
         <v>3</v>
       </c>
       <c r="O309" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P309" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q309" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R309" t="s">
         <v>279</v>
@@ -17641,19 +17641,19 @@
         <v>241</v>
       </c>
       <c r="M310" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N310" s="0">
         <v>3</v>
       </c>
       <c r="O310" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P310" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q310" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R310" t="s">
         <v>279</v>
@@ -17693,19 +17693,19 @@
         <v>229</v>
       </c>
       <c r="M311" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N311" s="0">
         <v>3</v>
       </c>
       <c r="O311" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P311" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q311" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R311" t="s">
         <v>279</v>
@@ -17745,19 +17745,19 @@
         <v>229</v>
       </c>
       <c r="M312" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N312" s="0">
         <v>3</v>
       </c>
       <c r="O312" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P312" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q312" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R312" t="s">
         <v>279</v>
@@ -17799,19 +17799,19 @@
         <v>241</v>
       </c>
       <c r="M313" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N313" s="0">
         <v>3</v>
       </c>
       <c r="O313" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P313" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q313" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R313" t="s">
         <v>279</v>
@@ -17853,19 +17853,19 @@
         <v>241</v>
       </c>
       <c r="M314" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N314" s="0">
         <v>3</v>
       </c>
       <c r="O314" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P314" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q314" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R314" t="s">
         <v>279</v>
@@ -17907,19 +17907,19 @@
         <v>241</v>
       </c>
       <c r="M315" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N315" s="0">
         <v>3</v>
       </c>
       <c r="O315" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P315" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q315" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R315" t="s">
         <v>279</v>
@@ -17961,19 +17961,19 @@
         <v>241</v>
       </c>
       <c r="M316" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N316" s="0">
         <v>3</v>
       </c>
       <c r="O316" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P316" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q316" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R316" t="s">
         <v>279</v>
@@ -18013,19 +18013,19 @@
         <v>229</v>
       </c>
       <c r="M317" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N317" s="0">
         <v>3</v>
       </c>
       <c r="O317" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P317" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q317" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R317" t="s">
         <v>279</v>
@@ -18065,19 +18065,19 @@
         <v>229</v>
       </c>
       <c r="M318" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N318" s="0">
         <v>3</v>
       </c>
       <c r="O318" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P318" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q318" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R318" t="s">
         <v>279</v>
@@ -18117,19 +18117,19 @@
         <v>229</v>
       </c>
       <c r="M319" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N319" s="0">
         <v>3</v>
       </c>
       <c r="O319" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P319" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q319" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R319" t="s">
         <v>279</v>
@@ -18169,19 +18169,19 @@
         <v>229</v>
       </c>
       <c r="M320" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N320" s="0">
         <v>3</v>
       </c>
       <c r="O320" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P320" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q320" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R320" t="s">
         <v>279</v>
@@ -18543,19 +18543,19 @@
         <v>241</v>
       </c>
       <c r="M327" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N327" s="0">
         <v>3</v>
       </c>
       <c r="O327" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P327" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q327" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R327" t="s">
         <v>279</v>
@@ -18597,19 +18597,19 @@
         <v>241</v>
       </c>
       <c r="M328" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N328" s="0">
         <v>3</v>
       </c>
       <c r="O328" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P328" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q328" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R328" t="s">
         <v>279</v>
@@ -18863,19 +18863,19 @@
         <v>241</v>
       </c>
       <c r="M333" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N333" s="0">
         <v>3</v>
       </c>
       <c r="O333" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P333" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q333" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R333" t="s">
         <v>279</v>
@@ -18917,19 +18917,19 @@
         <v>241</v>
       </c>
       <c r="M334" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N334" s="0">
         <v>3</v>
       </c>
       <c r="O334" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P334" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q334" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R334" t="s">
         <v>279</v>
@@ -18971,19 +18971,19 @@
         <v>241</v>
       </c>
       <c r="M335" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N335" s="0">
         <v>3</v>
       </c>
       <c r="O335" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P335" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q335" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R335" t="s">
         <v>279</v>
@@ -19025,19 +19025,19 @@
         <v>241</v>
       </c>
       <c r="M336" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N336" s="0">
         <v>3</v>
       </c>
       <c r="O336" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P336" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q336" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R336" t="s">
         <v>279</v>
@@ -19077,19 +19077,19 @@
         <v>229</v>
       </c>
       <c r="M337" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N337" s="0">
         <v>3</v>
       </c>
       <c r="O337" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P337" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q337" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R337" t="s">
         <v>279</v>
@@ -19129,19 +19129,19 @@
         <v>229</v>
       </c>
       <c r="M338" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N338" s="0">
         <v>3</v>
       </c>
       <c r="O338" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P338" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q338" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R338" t="s">
         <v>279</v>
@@ -19183,19 +19183,19 @@
         <v>241</v>
       </c>
       <c r="M339" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N339" s="0">
         <v>3</v>
       </c>
       <c r="O339" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P339" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q339" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R339" t="s">
         <v>279</v>
@@ -19237,19 +19237,19 @@
         <v>241</v>
       </c>
       <c r="M340" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N340" s="0">
         <v>3</v>
       </c>
       <c r="O340" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P340" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q340" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R340" t="s">
         <v>279</v>
@@ -19289,19 +19289,19 @@
         <v>229</v>
       </c>
       <c r="M341" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N341" s="0">
         <v>3</v>
       </c>
       <c r="O341" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P341" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q341" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R341" t="s">
         <v>279</v>
@@ -19341,19 +19341,19 @@
         <v>229</v>
       </c>
       <c r="M342" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N342" s="0">
         <v>3</v>
       </c>
       <c r="O342" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P342" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q342" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R342" t="s">
         <v>279</v>
@@ -19503,19 +19503,19 @@
         <v>241</v>
       </c>
       <c r="M345" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N345" s="0">
         <v>3</v>
       </c>
       <c r="O345" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P345" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q345" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R345" t="s">
         <v>279</v>
@@ -19557,19 +19557,19 @@
         <v>241</v>
       </c>
       <c r="M346" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N346" s="0">
         <v>3</v>
       </c>
       <c r="O346" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P346" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q346" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R346" t="s">
         <v>279</v>
@@ -19717,19 +19717,19 @@
         <v>241</v>
       </c>
       <c r="M349" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N349" s="0">
         <v>3</v>
       </c>
       <c r="O349" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P349" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q349" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R349" t="s">
         <v>279</v>
@@ -19769,19 +19769,19 @@
         <v>241</v>
       </c>
       <c r="M350" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N350" s="0">
         <v>3</v>
       </c>
       <c r="O350" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P350" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q350" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R350" t="s">
         <v>279</v>
@@ -19821,19 +19821,19 @@
         <v>229</v>
       </c>
       <c r="M351" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N351" s="0">
         <v>3</v>
       </c>
       <c r="O351" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P351" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q351" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R351" t="s">
         <v>279</v>
@@ -19873,19 +19873,19 @@
         <v>229</v>
       </c>
       <c r="M352" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N352" s="0">
         <v>3</v>
       </c>
       <c r="O352" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P352" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q352" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R352" t="s">
         <v>279</v>

--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -17371,19 +17371,19 @@
         <v>241</v>
       </c>
       <c r="M305" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N305" s="0">
         <v>3</v>
       </c>
       <c r="O305" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P305" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q305" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R305" t="s">
         <v>279</v>
@@ -17425,19 +17425,19 @@
         <v>241</v>
       </c>
       <c r="M306" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N306" s="0">
         <v>3</v>
       </c>
       <c r="O306" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P306" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q306" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R306" t="s">
         <v>279</v>
@@ -18437,19 +18437,19 @@
         <v>229</v>
       </c>
       <c r="M325" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N325" s="0">
         <v>3</v>
       </c>
       <c r="O325" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P325" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q325" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R325" t="s">
         <v>279</v>
@@ -18489,19 +18489,19 @@
         <v>229</v>
       </c>
       <c r="M326" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N326" s="0">
         <v>3</v>
       </c>
       <c r="O326" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P326" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q326" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R326" t="s">
         <v>279</v>
@@ -18543,19 +18543,19 @@
         <v>241</v>
       </c>
       <c r="M327" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N327" s="0">
         <v>3</v>
       </c>
       <c r="O327" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P327" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q327" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R327" t="s">
         <v>279</v>
@@ -18597,19 +18597,19 @@
         <v>241</v>
       </c>
       <c r="M328" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N328" s="0">
         <v>3</v>
       </c>
       <c r="O328" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P328" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q328" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R328" t="s">
         <v>279</v>
@@ -18649,19 +18649,19 @@
         <v>229</v>
       </c>
       <c r="M329" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N329" s="0">
         <v>3</v>
       </c>
       <c r="O329" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P329" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q329" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R329" t="s">
         <v>279</v>
@@ -18701,19 +18701,19 @@
         <v>229</v>
       </c>
       <c r="M330" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N330" s="0">
         <v>3</v>
       </c>
       <c r="O330" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P330" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q330" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R330" t="s">
         <v>279</v>
@@ -19183,19 +19183,19 @@
         <v>241</v>
       </c>
       <c r="M339" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N339" s="0">
         <v>3</v>
       </c>
       <c r="O339" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P339" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q339" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R339" t="s">
         <v>279</v>
@@ -19237,19 +19237,19 @@
         <v>241</v>
       </c>
       <c r="M340" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N340" s="0">
         <v>3</v>
       </c>
       <c r="O340" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P340" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q340" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R340" t="s">
         <v>279</v>
@@ -19503,19 +19503,19 @@
         <v>241</v>
       </c>
       <c r="M345" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N345" s="0">
         <v>3</v>
       </c>
       <c r="O345" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P345" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q345" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="R345" t="s">
         <v>279</v>
@@ -19557,19 +19557,19 @@
         <v>241</v>
       </c>
       <c r="M346" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N346" s="0">
         <v>3</v>
       </c>
       <c r="O346" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P346" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q346" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R346" t="s">
         <v>279</v>
@@ -19821,19 +19821,19 @@
         <v>229</v>
       </c>
       <c r="M351" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N351" s="0">
         <v>3</v>
       </c>
       <c r="O351" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="P351" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="Q351" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="R351" t="s">
         <v>279</v>
@@ -19873,19 +19873,19 @@
         <v>229</v>
       </c>
       <c r="M352" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N352" s="0">
         <v>3</v>
       </c>
       <c r="O352" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P352" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q352" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R352" t="s">
         <v>279</v>
@@ -37585,19 +37585,19 @@
         <v>240</v>
       </c>
       <c r="M680" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N680" s="0">
         <v>7</v>
       </c>
       <c r="O680" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P680" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q680" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R680" t="s">
         <v>279</v>
@@ -37639,16 +37639,16 @@
         <v>241</v>
       </c>
       <c r="M681" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N681" s="0">
         <v>7</v>
       </c>
       <c r="O681" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P681" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q681" t="s">
         <v>229</v>
@@ -37693,19 +37693,19 @@
         <v>240</v>
       </c>
       <c r="M682" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N682" s="0">
         <v>7</v>
       </c>
       <c r="O682" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P682" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q682" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R682" t="s">
         <v>279</v>
@@ -37745,19 +37745,19 @@
         <v>241</v>
       </c>
       <c r="M683" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N683" s="0">
         <v>7</v>
       </c>
       <c r="O683" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P683" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q683" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R683" t="s">
         <v>279</v>
@@ -37799,19 +37799,19 @@
         <v>241</v>
       </c>
       <c r="M684" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N684" s="0">
         <v>7</v>
       </c>
       <c r="O684" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P684" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q684" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R684" t="s">
         <v>279</v>
@@ -37853,19 +37853,19 @@
         <v>240</v>
       </c>
       <c r="M685" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N685" s="0">
         <v>7</v>
       </c>
       <c r="O685" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P685" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q685" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R685" t="s">
         <v>279</v>
@@ -37907,16 +37907,16 @@
         <v>229</v>
       </c>
       <c r="M686" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N686" s="0">
         <v>7</v>
       </c>
       <c r="O686" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P686" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q686" t="s">
         <v>229</v>
@@ -37959,19 +37959,19 @@
         <v>240</v>
       </c>
       <c r="M687" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N687" s="0">
         <v>7</v>
       </c>
       <c r="O687" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P687" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q687" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R687" t="s">
         <v>279</v>
@@ -38015,19 +38015,19 @@
         <v>240</v>
       </c>
       <c r="M688" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N688" s="0">
         <v>7</v>
       </c>
       <c r="O688" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P688" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q688" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R688" t="s">
         <v>279</v>
@@ -38067,19 +38067,19 @@
         <v>241</v>
       </c>
       <c r="M689" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N689" s="0">
         <v>7</v>
       </c>
       <c r="O689" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P689" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q689" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R689" t="s">
         <v>279</v>
@@ -38119,19 +38119,19 @@
         <v>241</v>
       </c>
       <c r="M690" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N690" s="0">
         <v>7</v>
       </c>
       <c r="O690" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P690" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q690" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R690" t="s">
         <v>279</v>
@@ -38175,19 +38175,19 @@
         <v>240</v>
       </c>
       <c r="M691" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N691" s="0">
         <v>7</v>
       </c>
       <c r="O691" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P691" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q691" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R691" t="s">
         <v>279</v>
@@ -38231,19 +38231,19 @@
         <v>241</v>
       </c>
       <c r="M692" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N692" s="0">
         <v>7</v>
       </c>
       <c r="O692" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P692" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q692" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R692" t="s">
         <v>279</v>
@@ -38283,19 +38283,19 @@
         <v>241</v>
       </c>
       <c r="M693" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N693" s="0">
         <v>7</v>
       </c>
       <c r="O693" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P693" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q693" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R693" t="s">
         <v>279</v>
@@ -38335,16 +38335,16 @@
         <v>229</v>
       </c>
       <c r="M694" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N694" s="0">
         <v>7</v>
       </c>
       <c r="O694" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P694" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q694" t="s">
         <v>229</v>
@@ -38389,19 +38389,19 @@
         <v>241</v>
       </c>
       <c r="M695" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N695" s="0">
         <v>7</v>
       </c>
       <c r="O695" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P695" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q695" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R695" t="s">
         <v>279</v>
@@ -38443,19 +38443,19 @@
         <v>240</v>
       </c>
       <c r="M696" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N696" s="0">
         <v>7</v>
       </c>
       <c r="O696" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P696" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q696" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R696" t="s">
         <v>279</v>
@@ -38495,19 +38495,19 @@
         <v>241</v>
       </c>
       <c r="M697" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N697" s="0">
         <v>7</v>
       </c>
       <c r="O697" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P697" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q697" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R697" t="s">
         <v>279</v>
@@ -38549,19 +38549,19 @@
         <v>240</v>
       </c>
       <c r="M698" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N698" s="0">
         <v>7</v>
       </c>
       <c r="O698" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P698" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q698" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R698" t="s">
         <v>279</v>
@@ -38603,19 +38603,19 @@
         <v>241</v>
       </c>
       <c r="M699" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N699" s="0">
         <v>7</v>
       </c>
       <c r="O699" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P699" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q699" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R699" t="s">
         <v>279</v>
@@ -38655,16 +38655,16 @@
         <v>229</v>
       </c>
       <c r="M700" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N700" s="0">
         <v>7</v>
       </c>
       <c r="O700" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P700" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q700" t="s">
         <v>229</v>
@@ -38707,16 +38707,16 @@
         <v>229</v>
       </c>
       <c r="M701" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N701" s="0">
         <v>7</v>
       </c>
       <c r="O701" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P701" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q701" t="s">
         <v>229</v>
@@ -38759,19 +38759,19 @@
         <v>241</v>
       </c>
       <c r="M702" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N702" s="0">
         <v>7</v>
       </c>
       <c r="O702" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P702" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q702" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R702" t="s">
         <v>279</v>
@@ -38811,16 +38811,16 @@
         <v>229</v>
       </c>
       <c r="M703" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N703" s="0">
         <v>7</v>
       </c>
       <c r="O703" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P703" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q703" t="s">
         <v>229</v>
@@ -38863,16 +38863,16 @@
         <v>229</v>
       </c>
       <c r="M704" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N704" s="0">
         <v>7</v>
       </c>
       <c r="O704" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P704" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q704" t="s">
         <v>229</v>
@@ -38917,19 +38917,19 @@
         <v>240</v>
       </c>
       <c r="M705" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N705" s="0">
         <v>7</v>
       </c>
       <c r="O705" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P705" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q705" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R705" t="s">
         <v>279</v>
@@ -38937,51 +38937,55 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B706" t="s">
         <v>139</v>
       </c>
-      <c r="C706" s="0"/>
+      <c r="C706" s="0">
+        <v>53</v>
+      </c>
       <c r="D706" t="s">
         <v>224</v>
       </c>
       <c r="E706" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F706" t="s">
         <v>232</v>
       </c>
       <c r="G706" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H706" t="s">
         <v>229</v>
       </c>
       <c r="I706" t="s">
-        <v>229</v>
-      </c>
-      <c r="J706" s="0"/>
+        <v>241</v>
+      </c>
+      <c r="J706" s="0">
+        <v>5</v>
+      </c>
       <c r="K706" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L706" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M706" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N706" s="0">
         <v>7</v>
       </c>
       <c r="O706" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P706" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q706" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R706" t="s">
         <v>279</v>
@@ -38989,7 +38993,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B707" t="s">
         <v>140</v>
@@ -38999,41 +39003,41 @@
         <v>224</v>
       </c>
       <c r="E707" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F707" t="s">
         <v>232</v>
       </c>
       <c r="G707" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H707" t="s">
         <v>229</v>
       </c>
       <c r="I707" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="J707" s="0"/>
       <c r="K707" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L707" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M707" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N707" s="0">
         <v>7</v>
       </c>
       <c r="O707" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P707" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q707" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R707" t="s">
         <v>279</v>
@@ -39041,7 +39045,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B708" t="s">
         <v>141</v>
@@ -39051,41 +39055,43 @@
         <v>224</v>
       </c>
       <c r="E708" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F708" t="s">
         <v>232</v>
       </c>
       <c r="G708" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H708" t="s">
         <v>229</v>
       </c>
       <c r="I708" t="s">
-        <v>229</v>
-      </c>
-      <c r="J708" s="0"/>
+        <v>241</v>
+      </c>
+      <c r="J708" s="0">
+        <v>5</v>
+      </c>
       <c r="K708" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L708" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M708" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N708" s="0">
         <v>7</v>
       </c>
       <c r="O708" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P708" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q708" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R708" t="s">
         <v>279</v>

--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -31980,7 +31980,7 @@
         <v>241</v>
       </c>
       <c r="P576" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q576" t="s">
         <v>276</v>
@@ -32036,7 +32036,7 @@
         <v>241</v>
       </c>
       <c r="P577" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q577" t="s">
         <v>276</v>
@@ -32089,7 +32089,7 @@
         <v>6</v>
       </c>
       <c r="O578" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P578" t="s">
         <v>240</v>
@@ -32145,7 +32145,7 @@
         <v>6</v>
       </c>
       <c r="O579" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P579" t="s">
         <v>240</v>
@@ -32428,7 +32428,7 @@
         <v>241</v>
       </c>
       <c r="P584" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q584" t="s">
         <v>276</v>
@@ -32484,7 +32484,7 @@
         <v>241</v>
       </c>
       <c r="P585" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q585" t="s">
         <v>276</v>
@@ -32643,19 +32643,19 @@
         <v>241</v>
       </c>
       <c r="M588" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N588" s="0">
         <v>6</v>
       </c>
       <c r="O588" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P588" t="s">
         <v>240</v>
       </c>
       <c r="Q588" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R588" t="s">
         <v>279</v>
@@ -32699,19 +32699,19 @@
         <v>241</v>
       </c>
       <c r="M589" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N589" s="0">
         <v>6</v>
       </c>
       <c r="O589" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P589" t="s">
         <v>240</v>
       </c>
       <c r="Q589" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R589" t="s">
         <v>279</v>
@@ -46795,7 +46795,7 @@
         <v>241</v>
       </c>
       <c r="M850" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N850" s="0">
         <v>8</v>
@@ -46807,7 +46807,7 @@
         <v>229</v>
       </c>
       <c r="Q850" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R850" t="s">
         <v>279</v>
@@ -46849,7 +46849,7 @@
         <v>241</v>
       </c>
       <c r="M851" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N851" s="0">
         <v>8</v>
@@ -46861,7 +46861,7 @@
         <v>229</v>
       </c>
       <c r="Q851" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R851" t="s">
         <v>279</v>
@@ -46903,7 +46903,7 @@
         <v>241</v>
       </c>
       <c r="M852" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N852" s="0">
         <v>8</v>
@@ -46915,7 +46915,7 @@
         <v>229</v>
       </c>
       <c r="Q852" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R852" t="s">
         <v>279</v>
@@ -46955,7 +46955,7 @@
         <v>229</v>
       </c>
       <c r="M853" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N853" s="0">
         <v>8</v>
@@ -46967,7 +46967,7 @@
         <v>229</v>
       </c>
       <c r="Q853" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R853" t="s">
         <v>279</v>
@@ -47009,7 +47009,7 @@
         <v>241</v>
       </c>
       <c r="M854" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N854" s="0">
         <v>8</v>
@@ -47021,7 +47021,7 @@
         <v>229</v>
       </c>
       <c r="Q854" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R854" t="s">
         <v>279</v>
@@ -47063,7 +47063,7 @@
         <v>241</v>
       </c>
       <c r="M855" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N855" s="0">
         <v>8</v>
@@ -47075,7 +47075,7 @@
         <v>229</v>
       </c>
       <c r="Q855" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R855" t="s">
         <v>279</v>
@@ -47115,7 +47115,7 @@
         <v>229</v>
       </c>
       <c r="M856" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N856" s="0">
         <v>8</v>
@@ -47127,7 +47127,7 @@
         <v>229</v>
       </c>
       <c r="Q856" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R856" t="s">
         <v>279</v>
@@ -47167,7 +47167,7 @@
         <v>229</v>
       </c>
       <c r="M857" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N857" s="0">
         <v>8</v>
@@ -47179,7 +47179,7 @@
         <v>229</v>
       </c>
       <c r="Q857" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R857" t="s">
         <v>279</v>
@@ -47221,7 +47221,7 @@
         <v>241</v>
       </c>
       <c r="M858" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N858" s="0">
         <v>8</v>
@@ -47233,7 +47233,7 @@
         <v>229</v>
       </c>
       <c r="Q858" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R858" t="s">
         <v>279</v>
@@ -47275,7 +47275,7 @@
         <v>241</v>
       </c>
       <c r="M859" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N859" s="0">
         <v>8</v>
@@ -47287,7 +47287,7 @@
         <v>229</v>
       </c>
       <c r="Q859" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R859" t="s">
         <v>279</v>
@@ -47327,7 +47327,7 @@
         <v>229</v>
       </c>
       <c r="M860" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N860" s="0">
         <v>8</v>
@@ -47339,7 +47339,7 @@
         <v>229</v>
       </c>
       <c r="Q860" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R860" t="s">
         <v>279</v>
@@ -47381,7 +47381,7 @@
         <v>241</v>
       </c>
       <c r="M861" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N861" s="0">
         <v>8</v>
@@ -47393,7 +47393,7 @@
         <v>229</v>
       </c>
       <c r="Q861" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R861" t="s">
         <v>279</v>
@@ -47433,7 +47433,7 @@
         <v>229</v>
       </c>
       <c r="M862" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N862" s="0">
         <v>8</v>
@@ -47445,7 +47445,7 @@
         <v>229</v>
       </c>
       <c r="Q862" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R862" t="s">
         <v>279</v>
@@ -47487,7 +47487,7 @@
         <v>241</v>
       </c>
       <c r="M863" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N863" s="0">
         <v>8</v>
@@ -47499,7 +47499,7 @@
         <v>229</v>
       </c>
       <c r="Q863" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R863" t="s">
         <v>279</v>
@@ -47541,7 +47541,7 @@
         <v>241</v>
       </c>
       <c r="M864" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N864" s="0">
         <v>8</v>
@@ -47553,7 +47553,7 @@
         <v>229</v>
       </c>
       <c r="Q864" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R864" t="s">
         <v>279</v>
@@ -47595,7 +47595,7 @@
         <v>241</v>
       </c>
       <c r="M865" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N865" s="0">
         <v>8</v>
@@ -47607,7 +47607,7 @@
         <v>229</v>
       </c>
       <c r="Q865" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R865" t="s">
         <v>279</v>
@@ -47647,7 +47647,7 @@
         <v>229</v>
       </c>
       <c r="M866" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N866" s="0">
         <v>8</v>
@@ -47659,7 +47659,7 @@
         <v>229</v>
       </c>
       <c r="Q866" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R866" t="s">
         <v>279</v>
@@ -47701,7 +47701,7 @@
         <v>241</v>
       </c>
       <c r="M867" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N867" s="0">
         <v>8</v>
@@ -47713,7 +47713,7 @@
         <v>229</v>
       </c>
       <c r="Q867" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R867" t="s">
         <v>279</v>
@@ -47753,7 +47753,7 @@
         <v>229</v>
       </c>
       <c r="M868" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N868" s="0">
         <v>8</v>
@@ -47765,7 +47765,7 @@
         <v>229</v>
       </c>
       <c r="Q868" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R868" t="s">
         <v>279</v>
@@ -47807,7 +47807,7 @@
         <v>241</v>
       </c>
       <c r="M869" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N869" s="0">
         <v>8</v>
@@ -47819,7 +47819,7 @@
         <v>229</v>
       </c>
       <c r="Q869" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R869" t="s">
         <v>279</v>
@@ -47861,7 +47861,7 @@
         <v>241</v>
       </c>
       <c r="M870" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N870" s="0">
         <v>8</v>
@@ -47873,7 +47873,7 @@
         <v>229</v>
       </c>
       <c r="Q870" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R870" t="s">
         <v>279</v>
@@ -47915,7 +47915,7 @@
         <v>241</v>
       </c>
       <c r="M871" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N871" s="0">
         <v>8</v>
@@ -47927,7 +47927,7 @@
         <v>229</v>
       </c>
       <c r="Q871" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R871" t="s">
         <v>279</v>
@@ -47967,7 +47967,7 @@
         <v>241</v>
       </c>
       <c r="M872" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N872" s="0">
         <v>8</v>
@@ -47979,7 +47979,7 @@
         <v>229</v>
       </c>
       <c r="Q872" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="R872" t="s">
         <v>279</v>
@@ -48019,7 +48019,7 @@
         <v>229</v>
       </c>
       <c r="M873" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N873" s="0">
         <v>8</v>
@@ -48031,7 +48031,7 @@
         <v>229</v>
       </c>
       <c r="Q873" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="R873" t="s">
         <v>279</v>

--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -31980,7 +31980,7 @@
         <v>241</v>
       </c>
       <c r="P576" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q576" t="s">
         <v>276</v>
@@ -32036,7 +32036,7 @@
         <v>241</v>
       </c>
       <c r="P577" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q577" t="s">
         <v>276</v>
@@ -32089,7 +32089,7 @@
         <v>6</v>
       </c>
       <c r="O578" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P578" t="s">
         <v>240</v>
@@ -32145,7 +32145,7 @@
         <v>6</v>
       </c>
       <c r="O579" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P579" t="s">
         <v>240</v>
@@ -32540,7 +32540,7 @@
         <v>241</v>
       </c>
       <c r="P586" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q586" t="s">
         <v>276</v>
@@ -32596,7 +32596,7 @@
         <v>241</v>
       </c>
       <c r="P587" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q587" t="s">
         <v>276</v>
@@ -33310,7 +33310,7 @@
         <v>241</v>
       </c>
       <c r="P600" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q600" t="s">
         <v>276</v>
@@ -33364,7 +33364,7 @@
         <v>241</v>
       </c>
       <c r="P601" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q601" t="s">
         <v>276</v>
@@ -45235,7 +45235,7 @@
         <v>241</v>
       </c>
       <c r="M821" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N821" s="0">
         <v>8</v>
@@ -45289,7 +45289,7 @@
         <v>241</v>
       </c>
       <c r="M822" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N822" s="0">
         <v>8</v>
@@ -45343,7 +45343,7 @@
         <v>241</v>
       </c>
       <c r="M823" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N823" s="0">
         <v>8</v>
@@ -45397,7 +45397,7 @@
         <v>241</v>
       </c>
       <c r="M824" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N824" s="0">
         <v>8</v>
@@ -45451,7 +45451,7 @@
         <v>241</v>
       </c>
       <c r="M825" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N825" s="0">
         <v>8</v>
@@ -45505,7 +45505,7 @@
         <v>241</v>
       </c>
       <c r="M826" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N826" s="0">
         <v>8</v>
@@ -45559,7 +45559,7 @@
         <v>241</v>
       </c>
       <c r="M827" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N827" s="0">
         <v>8</v>
@@ -45613,7 +45613,7 @@
         <v>241</v>
       </c>
       <c r="M828" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N828" s="0">
         <v>8</v>
@@ -45667,7 +45667,7 @@
         <v>241</v>
       </c>
       <c r="M829" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N829" s="0">
         <v>8</v>
@@ -45721,7 +45721,7 @@
         <v>241</v>
       </c>
       <c r="M830" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N830" s="0">
         <v>8</v>
@@ -45775,7 +45775,7 @@
         <v>241</v>
       </c>
       <c r="M831" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N831" s="0">
         <v>8</v>
@@ -45829,7 +45829,7 @@
         <v>241</v>
       </c>
       <c r="M832" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N832" s="0">
         <v>8</v>
@@ -45883,7 +45883,7 @@
         <v>241</v>
       </c>
       <c r="M833" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N833" s="0">
         <v>8</v>
@@ -45937,7 +45937,7 @@
         <v>229</v>
       </c>
       <c r="M834" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N834" s="0">
         <v>8</v>
@@ -45991,7 +45991,7 @@
         <v>241</v>
       </c>
       <c r="M835" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N835" s="0">
         <v>8</v>
@@ -46045,7 +46045,7 @@
         <v>240</v>
       </c>
       <c r="M836" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N836" s="0">
         <v>8</v>
@@ -46097,7 +46097,7 @@
         <v>229</v>
       </c>
       <c r="M837" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N837" s="0">
         <v>8</v>
@@ -46151,7 +46151,7 @@
         <v>229</v>
       </c>
       <c r="M838" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N838" s="0">
         <v>8</v>
@@ -46205,7 +46205,7 @@
         <v>241</v>
       </c>
       <c r="M839" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N839" s="0">
         <v>8</v>
@@ -46259,7 +46259,7 @@
         <v>241</v>
       </c>
       <c r="M840" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N840" s="0">
         <v>8</v>
@@ -46311,7 +46311,7 @@
         <v>229</v>
       </c>
       <c r="M841" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N841" s="0">
         <v>8</v>
@@ -46363,7 +46363,7 @@
         <v>229</v>
       </c>
       <c r="M842" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N842" s="0">
         <v>8</v>
@@ -46417,7 +46417,7 @@
         <v>241</v>
       </c>
       <c r="M843" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N843" s="0">
         <v>8</v>
@@ -46471,7 +46471,7 @@
         <v>241</v>
       </c>
       <c r="M844" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N844" s="0">
         <v>8</v>
@@ -46525,7 +46525,7 @@
         <v>241</v>
       </c>
       <c r="M845" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N845" s="0">
         <v>8</v>
@@ -46579,7 +46579,7 @@
         <v>241</v>
       </c>
       <c r="M846" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N846" s="0">
         <v>8</v>
@@ -46633,7 +46633,7 @@
         <v>241</v>
       </c>
       <c r="M847" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N847" s="0">
         <v>8</v>
@@ -46687,7 +46687,7 @@
         <v>241</v>
       </c>
       <c r="M848" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N848" s="0">
         <v>8</v>
@@ -46741,7 +46741,7 @@
         <v>241</v>
       </c>
       <c r="M849" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="N849" s="0">
         <v>8</v>

--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -45244,7 +45244,7 @@
         <v>238</v>
       </c>
       <c r="Q821" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R821" t="s">
         <v>276</v>
@@ -45298,7 +45298,7 @@
         <v>238</v>
       </c>
       <c r="Q822" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R822" t="s">
         <v>276</v>
@@ -45352,7 +45352,7 @@
         <v>238</v>
       </c>
       <c r="Q823" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R823" t="s">
         <v>276</v>
@@ -45406,7 +45406,7 @@
         <v>238</v>
       </c>
       <c r="Q824" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R824" t="s">
         <v>276</v>
@@ -45460,7 +45460,7 @@
         <v>238</v>
       </c>
       <c r="Q825" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R825" t="s">
         <v>276</v>
@@ -45514,7 +45514,7 @@
         <v>238</v>
       </c>
       <c r="Q826" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R826" t="s">
         <v>276</v>
@@ -45568,7 +45568,7 @@
         <v>238</v>
       </c>
       <c r="Q827" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R827" t="s">
         <v>276</v>
@@ -45622,7 +45622,7 @@
         <v>238</v>
       </c>
       <c r="Q828" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R828" t="s">
         <v>276</v>
@@ -45676,7 +45676,7 @@
         <v>238</v>
       </c>
       <c r="Q829" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R829" t="s">
         <v>276</v>
@@ -45730,7 +45730,7 @@
         <v>238</v>
       </c>
       <c r="Q830" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R830" t="s">
         <v>276</v>
@@ -45784,7 +45784,7 @@
         <v>238</v>
       </c>
       <c r="Q831" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R831" t="s">
         <v>276</v>
@@ -45838,7 +45838,7 @@
         <v>238</v>
       </c>
       <c r="Q832" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R832" t="s">
         <v>276</v>
@@ -45892,7 +45892,7 @@
         <v>238</v>
       </c>
       <c r="Q833" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="R833" t="s">
         <v>276</v>
@@ -45946,7 +45946,7 @@
         <v>238</v>
       </c>
       <c r="Q834" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R834" t="s">
         <v>276</v>
@@ -46000,7 +46000,7 @@
         <v>238</v>
       </c>
       <c r="Q835" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R835" t="s">
         <v>276</v>
@@ -46054,7 +46054,7 @@
         <v>238</v>
       </c>
       <c r="Q836" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R836" t="s">
         <v>276</v>
@@ -46106,7 +46106,7 @@
         <v>238</v>
       </c>
       <c r="Q837" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="R837" t="s">
         <v>276</v>
@@ -46160,7 +46160,7 @@
         <v>238</v>
       </c>
       <c r="Q838" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R838" t="s">
         <v>276</v>
@@ -46214,7 +46214,7 @@
         <v>238</v>
       </c>
       <c r="Q839" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R839" t="s">
         <v>276</v>
@@ -46268,7 +46268,7 @@
         <v>238</v>
       </c>
       <c r="Q840" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R840" t="s">
         <v>276</v>
@@ -46320,7 +46320,7 @@
         <v>238</v>
       </c>
       <c r="Q841" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="R841" t="s">
         <v>276</v>
@@ -46372,7 +46372,7 @@
         <v>238</v>
       </c>
       <c r="Q842" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="R842" t="s">
         <v>276</v>
@@ -46426,7 +46426,7 @@
         <v>238</v>
       </c>
       <c r="Q843" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R843" t="s">
         <v>276</v>
@@ -46480,7 +46480,7 @@
         <v>238</v>
       </c>
       <c r="Q844" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R844" t="s">
         <v>276</v>
@@ -46534,7 +46534,7 @@
         <v>238</v>
       </c>
       <c r="Q845" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R845" t="s">
         <v>276</v>
@@ -46588,7 +46588,7 @@
         <v>238</v>
       </c>
       <c r="Q846" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R846" t="s">
         <v>276</v>
@@ -46642,7 +46642,7 @@
         <v>238</v>
       </c>
       <c r="Q847" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="R847" t="s">
         <v>276</v>
@@ -46696,7 +46696,7 @@
         <v>238</v>
       </c>
       <c r="Q848" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R848" t="s">
         <v>276</v>
@@ -46750,7 +46750,7 @@
         <v>238</v>
       </c>
       <c r="Q849" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="R849" t="s">
         <v>276</v>

--- a/produtores_CHIMANIMANI.xlsx
+++ b/produtores_CHIMANIMANI.xlsx
@@ -32419,7 +32419,7 @@
         <v>237</v>
       </c>
       <c r="P584" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q584" t="s">
         <v>273</v>
@@ -32475,7 +32475,7 @@
         <v>237</v>
       </c>
       <c r="P585" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q585" t="s">
         <v>273</v>
@@ -33184,7 +33184,7 @@
         <v>236</v>
       </c>
       <c r="M598" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N598" s="0">
         <v>6</v>
@@ -33196,7 +33196,7 @@
         <v>236</v>
       </c>
       <c r="Q598" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R598" t="s">
         <v>276</v>
@@ -33238,7 +33238,7 @@
         <v>236</v>
       </c>
       <c r="M599" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N599" s="0">
         <v>6</v>
@@ -33250,7 +33250,7 @@
         <v>236</v>
       </c>
       <c r="Q599" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R599" t="s">
         <v>276</v>
